--- a/config/default/forms/app/malnutrition_follow_up.xlsx
+++ b/config/default/forms/app/malnutrition_follow_up.xlsx
@@ -8194,7 +8194,7 @@
       </c>
       <c r="C2" s="52" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-03_16-46</v>
+        <v>2020-12-04_11-56</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>169</v>

--- a/config/default/forms/app/malnutrition_follow_up.xlsx
+++ b/config/default/forms/app/malnutrition_follow_up.xlsx
@@ -9213,7 +9213,7 @@
       </c>
       <c r="C2" s="59" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-26_15-31</v>
+        <v>2021-01-28_15-38</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>180</v>

--- a/config/default/forms/app/malnutrition_follow_up.xlsx
+++ b/config/default/forms/app/malnutrition_follow_up.xlsx
@@ -9213,7 +9213,7 @@
       </c>
       <c r="C2" s="59" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-28_15-38</v>
+        <v>2021-01-29_15-47</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>180</v>

--- a/config/default/forms/app/malnutrition_follow_up.xlsx
+++ b/config/default/forms/app/malnutrition_follow_up.xlsx
@@ -9213,7 +9213,7 @@
       </c>
       <c r="C2" s="59" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-29_15-47</v>
+        <v>2021-02-02_14-49</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>180</v>

--- a/config/default/forms/app/malnutrition_follow_up.xlsx
+++ b/config/default/forms/app/malnutrition_follow_up.xlsx
@@ -9213,7 +9213,7 @@
       </c>
       <c r="C2" s="59" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-02_14-49</v>
+        <v>2021-02-04_14-28</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>180</v>

--- a/config/default/forms/app/malnutrition_follow_up.xlsx
+++ b/config/default/forms/app/malnutrition_follow_up.xlsx
@@ -9213,7 +9213,7 @@
       </c>
       <c r="C2" s="59" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-04_14-28</v>
+        <v>2021-02-05_13-19</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>180</v>
